--- a/tcc_quadro_comparativo.xlsx
+++ b/tcc_quadro_comparativo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Requisitos de Informação</t>
   </si>
@@ -52,12 +52,42 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Custos</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Custo Operacional do Sistema Atual</t>
+  </si>
+  <si>
+    <t>Custo Operacional do Sistema Novo</t>
+  </si>
+  <si>
+    <t>Valor (R$)</t>
+  </si>
+  <si>
+    <t>Custo de Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Custo do Projeto</t>
+  </si>
+  <si>
+    <t>R$ 18.144,97‬</t>
+  </si>
+  <si>
+    <t>ROI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,17 +117,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,386 +415,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="5">
+        <v>41662.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5">
+        <v>18131.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="3"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="3"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6">
+        <v>16000</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
+        <v>16000</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6">
+        <v>18131.29</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="43">
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A17:E20"/>
+    <mergeCell ref="A21:E24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E4"/>
+    <mergeCell ref="A5:E8"/>
+    <mergeCell ref="F14:G16"/>
+    <mergeCell ref="H14:I16"/>
+    <mergeCell ref="A25:E28"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:I4"/>
+    <mergeCell ref="A9:E12"/>
+    <mergeCell ref="A13:E16"/>
+    <mergeCell ref="F5:G7"/>
+    <mergeCell ref="H5:I7"/>
+    <mergeCell ref="F8:G10"/>
+    <mergeCell ref="H8:I10"/>
+    <mergeCell ref="F11:G13"/>
+    <mergeCell ref="H11:I13"/>
     <mergeCell ref="F26:G28"/>
     <mergeCell ref="H26:I28"/>
     <mergeCell ref="F17:G19"/>
@@ -767,27 +939,8 @@
     <mergeCell ref="H20:I22"/>
     <mergeCell ref="F23:G25"/>
     <mergeCell ref="H23:I25"/>
-    <mergeCell ref="F5:G7"/>
-    <mergeCell ref="H5:I7"/>
-    <mergeCell ref="F8:G10"/>
-    <mergeCell ref="H8:I10"/>
-    <mergeCell ref="F11:G13"/>
-    <mergeCell ref="H11:I13"/>
-    <mergeCell ref="F14:G16"/>
-    <mergeCell ref="H14:I16"/>
-    <mergeCell ref="A25:E28"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:I4"/>
-    <mergeCell ref="A9:E12"/>
-    <mergeCell ref="A13:E16"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A17:E20"/>
-    <mergeCell ref="A21:E24"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E4"/>
-    <mergeCell ref="A5:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>